--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
@@ -995,6 +995,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,20 +1018,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1349,29 +1349,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="24"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1965,14 +1965,33 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="21"/>
+      <c r="B24" s="83">
+        <v>43719</v>
+      </c>
+      <c r="C24" s="83">
+        <v>43724</v>
+      </c>
+      <c r="D24" s="83">
+        <v>43725</v>
+      </c>
+      <c r="E24" s="84">
+        <v>1512490</v>
+      </c>
+      <c r="F24" s="84">
+        <v>1647216</v>
+      </c>
+      <c r="G24" s="86">
+        <f>F24/A$19</f>
+        <v>8.4041632653061221E-2</v>
+      </c>
+      <c r="H24" s="78">
+        <f t="shared" ref="H24" si="4">H23-F24</f>
+        <v>5096829</v>
+      </c>
+      <c r="I24" s="71">
+        <f t="shared" ref="I24" si="5">I23-G24</f>
+        <v>0.26004229591836747</v>
+      </c>
       <c r="J24" s="60"/>
       <c r="K24" s="60"/>
       <c r="L24" s="1"/>
@@ -2056,23 +2075,23 @@
       <c r="D30" s="17"/>
       <c r="E30" s="47">
         <f>SUM(E19:E29)</f>
-        <v>5336580</v>
+        <v>6849070</v>
       </c>
       <c r="F30" s="46">
         <f>SUM(F19:F29)</f>
-        <v>12855955</v>
+        <v>14503171</v>
       </c>
       <c r="G30" s="20">
         <f>SUM(G19:G29)</f>
-        <v>0.65591607142857145</v>
+        <v>0.73995770408163264</v>
       </c>
       <c r="H30" s="18">
         <f>A19-F30</f>
-        <v>6744045</v>
+        <v>5096829</v>
       </c>
       <c r="I30" s="23">
         <f>1-G30</f>
-        <v>0.34408392857142855</v>
+        <v>0.26004229591836736</v>
       </c>
       <c r="J30" s="62"/>
       <c r="K30" s="62"/>
@@ -2091,12 +2110,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2105,10 +2124,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="106"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
@@ -2123,18 +2142,18 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="104">
+      <c r="A36" s="110">
         <f>A19-F30</f>
-        <v>6744045</v>
-      </c>
-      <c r="B36" s="105"/>
+        <v>5096829</v>
+      </c>
+      <c r="B36" s="111"/>
       <c r="C36" s="66">
         <f>1-G30</f>
-        <v>0.34408392857142855</v>
+        <v>0.26004229591836736</v>
       </c>
       <c r="D36" s="19">
         <f>(C36/0.8)*100</f>
-        <v>43.010491071428568</v>
+        <v>32.50528698979592</v>
       </c>
       <c r="E36" s="75" t="s">
         <v>43</v>
@@ -2191,8 +2210,8 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="103"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="49"/>
@@ -2286,9 +2305,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="111"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="54"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2305,8 +2324,8 @@
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="103"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="109"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="49"/>
@@ -2317,8 +2336,8 @@
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="50"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="49"/>
@@ -2329,8 +2348,8 @@
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2343,23 +2362,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="102"/>
-      <c r="C59" s="103"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="109"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="102"/>
-      <c r="C66" s="103"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="109"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2367,6 +2381,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -155,7 +155,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>Начальник УРФ                                           А.Д. Гавриленко</t>
+    <t>Начальник УРФ</t>
+  </si>
+  <si>
+    <t>А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -851,8 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -995,30 +996,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1328,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:I24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1338,7 +1361,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
@@ -1349,29 +1372,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="24"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1436,7 +1459,7 @@
       <c r="B5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="37">
@@ -1445,7 +1468,7 @@
       <c r="E5" s="37">
         <v>28</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="37">
         <f>E5-F5</f>
         <v>28</v>
@@ -1454,17 +1477,17 @@
       <c r="I5" s="40"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="63"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="38">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="42">
@@ -1473,7 +1496,7 @@
       <c r="E6" s="9">
         <v>28</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>28</v>
@@ -1482,17 +1505,17 @@
       <c r="I6" s="41"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="64"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="38">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="42">
@@ -1501,7 +1524,7 @@
       <c r="E7" s="9">
         <v>38</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1510,17 +1533,17 @@
       <c r="I7" s="41"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="64"/>
+      <c r="L7" s="62"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="38">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="42">
@@ -1529,7 +1552,7 @@
       <c r="E8" s="9">
         <v>38</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1538,17 +1561,17 @@
       <c r="I8" s="41"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="64"/>
+      <c r="L8" s="62"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="38">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="42">
@@ -1557,7 +1580,7 @@
       <c r="E9" s="9">
         <v>155</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="67">
         <v>50</v>
       </c>
       <c r="G9" s="9">
@@ -1568,17 +1591,17 @@
       <c r="I9" s="42"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="64"/>
+      <c r="L9" s="62"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="38">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="42">
@@ -1587,7 +1610,7 @@
       <c r="E10" s="9">
         <v>25</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1596,17 +1619,17 @@
       <c r="I10" s="41"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="64"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="38">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="42">
@@ -1615,7 +1638,7 @@
       <c r="E11" s="9">
         <v>30</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1624,7 +1647,7 @@
       <c r="I11" s="42"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="64"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
@@ -1632,25 +1655,25 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="96" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="9"/>
       <c r="H12" s="45"/>
       <c r="I12" s="42"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="64"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
@@ -1658,10 +1681,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="42">
@@ -1670,7 +1693,7 @@
       <c r="E13" s="9">
         <v>60</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="67">
         <v>10</v>
       </c>
       <c r="G13" s="9">
@@ -1683,17 +1706,17 @@
       <c r="I13" s="42"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="64"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="38">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="42">
@@ -1702,7 +1725,7 @@
       <c r="E14" s="9">
         <v>240</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="67">
         <v>50</v>
       </c>
       <c r="G14" s="9">
@@ -1713,39 +1736,39 @@
       <c r="I14" s="42"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="64"/>
+      <c r="L14" s="62"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="101">
+      <c r="A15" s="99">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="71">
         <v>50</v>
       </c>
       <c r="E15" s="39">
         <v>50</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="39">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
-      <c r="L15" s="74"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="56"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1757,7 +1780,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="12"/>
@@ -1767,9 +1790,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A18" s="30" t="s">
@@ -1799,65 +1822,65 @@
       <c r="I18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="65">
+      <c r="A19" s="63">
         <f>E5*700000</f>
         <v>19600000</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78">
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="76">
         <v>7050000</v>
       </c>
-      <c r="G19" s="79">
-        <f>F19/A$19</f>
+      <c r="G19" s="77">
+        <f t="shared" ref="G19:G24" si="3">F19/A$19</f>
         <v>0.35969387755102039</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="76">
         <f>A19-F19</f>
         <v>12550000</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="69">
         <f>1-G19</f>
         <v>0.64030612244897966</v>
       </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79">
         <v>43503</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="79">
         <v>43508</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="79">
         <v>43509</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="113">
         <v>892160</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="80">
         <v>1151963</v>
       </c>
-      <c r="G20" s="79">
-        <f>F20/A$19</f>
+      <c r="G20" s="77">
+        <f t="shared" si="3"/>
         <v>5.8773622448979594E-2</v>
       </c>
-      <c r="H20" s="78">
-        <f t="shared" ref="H20:I23" si="3">H19-F20</f>
+      <c r="H20" s="76">
+        <f t="shared" ref="H20:I23" si="4">H19-F20</f>
         <v>11398037</v>
       </c>
-      <c r="I20" s="71">
-        <f t="shared" si="3"/>
+      <c r="I20" s="69">
+        <f t="shared" si="4"/>
         <v>0.58153250000000012</v>
       </c>
       <c r="J20" s="1"/>
@@ -1866,202 +1889,202 @@
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="13"/>
-      <c r="B21" s="83">
+      <c r="B21" s="81">
         <v>43531</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="81">
         <v>43537</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="81">
         <v>43553</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="114">
         <v>1379410</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="82">
         <v>1586701</v>
       </c>
-      <c r="G21" s="79">
-        <f>F21/A$19</f>
+      <c r="G21" s="77">
+        <f t="shared" si="3"/>
         <v>8.0954132653061228E-2</v>
       </c>
-      <c r="H21" s="78">
-        <f t="shared" si="3"/>
+      <c r="H21" s="76">
+        <f t="shared" si="4"/>
         <v>9811336</v>
       </c>
-      <c r="I21" s="71">
-        <f t="shared" si="3"/>
+      <c r="I21" s="69">
+        <f t="shared" si="4"/>
         <v>0.50057836734693884</v>
       </c>
-      <c r="J21" s="60"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="13"/>
-      <c r="B22" s="83">
+      <c r="B22" s="81">
         <v>43577</v>
       </c>
-      <c r="C22" s="83">
+      <c r="C22" s="81">
         <v>43584</v>
       </c>
-      <c r="D22" s="83">
+      <c r="D22" s="81">
         <v>43585</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="115">
         <v>1740710</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="83">
         <v>1953970</v>
       </c>
-      <c r="G22" s="79">
-        <f>F22/A$19</f>
+      <c r="G22" s="77">
+        <f t="shared" si="3"/>
         <v>9.9692346938775517E-2</v>
       </c>
-      <c r="H22" s="78">
-        <f t="shared" si="3"/>
+      <c r="H22" s="76">
+        <f t="shared" si="4"/>
         <v>7857366</v>
       </c>
-      <c r="I22" s="71">
-        <f t="shared" si="3"/>
+      <c r="I22" s="69">
+        <f t="shared" si="4"/>
         <v>0.40088602040816335</v>
       </c>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
-      <c r="B23" s="83">
+      <c r="B23" s="81">
         <v>43675</v>
       </c>
-      <c r="C23" s="83">
+      <c r="C23" s="81">
         <v>43679</v>
       </c>
-      <c r="D23" s="83">
+      <c r="D23" s="81">
         <v>43680</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="114">
         <v>1324300</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="82">
         <v>1113321</v>
       </c>
-      <c r="G23" s="86">
-        <f>F23/A$19</f>
+      <c r="G23" s="84">
+        <f t="shared" si="3"/>
         <v>5.6802091836734694E-2</v>
       </c>
-      <c r="H23" s="78">
-        <f t="shared" si="3"/>
+      <c r="H23" s="76">
+        <f t="shared" si="4"/>
         <v>6744045</v>
       </c>
-      <c r="I23" s="71">
-        <f t="shared" si="3"/>
+      <c r="I23" s="69">
+        <f t="shared" si="4"/>
         <v>0.34408392857142867</v>
       </c>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="83">
+      <c r="B24" s="81">
         <v>43719</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="81">
         <v>43724</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="81">
         <v>43725</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="114">
         <v>1512490</v>
       </c>
-      <c r="F24" s="84">
+      <c r="F24" s="82">
         <v>1647216</v>
       </c>
-      <c r="G24" s="86">
-        <f>F24/A$19</f>
+      <c r="G24" s="84">
+        <f t="shared" si="3"/>
         <v>8.4041632653061221E-2</v>
       </c>
-      <c r="H24" s="78">
-        <f t="shared" ref="H24" si="4">H23-F24</f>
+      <c r="H24" s="76">
+        <f t="shared" ref="H24" si="5">H23-F24</f>
         <v>5096829</v>
       </c>
-      <c r="I24" s="71">
-        <f t="shared" ref="I24" si="5">I23-G24</f>
+      <c r="I24" s="69">
+        <f t="shared" ref="I24" si="6">I23-G24</f>
         <v>0.26004229591836747</v>
       </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="84"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="84"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2073,11 +2096,11 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="47">
+      <c r="E30" s="117">
         <f>SUM(E19:E29)</f>
         <v>6849070</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="118">
         <f>SUM(F19:F29)</f>
         <v>14503171</v>
       </c>
@@ -2093,9 +2116,9 @@
         <f>1-G30</f>
         <v>0.26004229591836736</v>
       </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
@@ -2110,12 +2133,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2124,10 +2147,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="112"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
@@ -2142,12 +2165,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="110">
+      <c r="A36" s="103">
         <f>A19-F30</f>
         <v>5096829</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="66">
+      <c r="B36" s="104"/>
+      <c r="C36" s="64">
         <f>1-G30</f>
         <v>0.26004229591836736</v>
       </c>
@@ -2155,16 +2178,18 @@
         <f>(C36/0.8)*100</f>
         <v>32.50528698979592</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
+      <c r="G36" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2202,113 +2227,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="109"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="50"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="50"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="50"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="50"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="48"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="50"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="50"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="50"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="54"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2316,40 +2341,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="109"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="49"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="49"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2362,18 +2387,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="108"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="102"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="108"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="102"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2381,11 +2411,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
@@ -997,18 +997,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1016,32 +1023,25 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1372,29 +1372,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="24"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1834,12 +1834,12 @@
       <c r="B19" s="74"/>
       <c r="C19" s="75"/>
       <c r="D19" s="74"/>
-      <c r="E19" s="112"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="76">
         <v>7050000</v>
       </c>
       <c r="G19" s="77">
-        <f t="shared" ref="G19:G24" si="3">F19/A$19</f>
+        <f t="shared" ref="G19:G25" si="3">F19/A$19</f>
         <v>0.35969387755102039</v>
       </c>
       <c r="H19" s="76">
@@ -1865,7 +1865,7 @@
       <c r="D20" s="79">
         <v>43509</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="102">
         <v>892160</v>
       </c>
       <c r="F20" s="80">
@@ -1898,7 +1898,7 @@
       <c r="D21" s="81">
         <v>43553</v>
       </c>
-      <c r="E21" s="114">
+      <c r="E21" s="103">
         <v>1379410</v>
       </c>
       <c r="F21" s="82">
@@ -1931,7 +1931,7 @@
       <c r="D22" s="81">
         <v>43585</v>
       </c>
-      <c r="E22" s="115">
+      <c r="E22" s="104">
         <v>1740710</v>
       </c>
       <c r="F22" s="83">
@@ -1964,7 +1964,7 @@
       <c r="D23" s="81">
         <v>43680</v>
       </c>
-      <c r="E23" s="114">
+      <c r="E23" s="103">
         <v>1324300</v>
       </c>
       <c r="F23" s="82">
@@ -1997,7 +1997,7 @@
       <c r="D24" s="81">
         <v>43725</v>
       </c>
-      <c r="E24" s="114">
+      <c r="E24" s="103">
         <v>1512490</v>
       </c>
       <c r="F24" s="82">
@@ -2021,14 +2021,33 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="21"/>
+      <c r="B25" s="81">
+        <v>43782</v>
+      </c>
+      <c r="C25" s="81">
+        <v>43788</v>
+      </c>
+      <c r="D25" s="81">
+        <v>43789</v>
+      </c>
+      <c r="E25" s="103">
+        <v>1791290</v>
+      </c>
+      <c r="F25" s="82">
+        <v>1950132</v>
+      </c>
+      <c r="G25" s="84">
+        <f t="shared" si="3"/>
+        <v>9.9496530612244893E-2</v>
+      </c>
+      <c r="H25" s="76">
+        <f t="shared" ref="H25" si="7">H24-F25</f>
+        <v>3146697</v>
+      </c>
+      <c r="I25" s="69">
+        <f t="shared" ref="I25" si="8">I24-G25</f>
+        <v>0.16054576530612258</v>
+      </c>
       <c r="J25" s="58"/>
       <c r="K25" s="58"/>
       <c r="L25" s="1"/>
@@ -2038,7 +2057,7 @@
       <c r="B26" s="81"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
-      <c r="E26" s="114"/>
+      <c r="E26" s="103"/>
       <c r="F26" s="82"/>
       <c r="G26" s="84"/>
       <c r="H26" s="82"/>
@@ -2052,7 +2071,7 @@
       <c r="B27" s="81"/>
       <c r="C27" s="81"/>
       <c r="D27" s="83"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="82"/>
       <c r="G27" s="85"/>
       <c r="H27" s="82"/>
@@ -2066,7 +2085,7 @@
       <c r="B28" s="81"/>
       <c r="C28" s="81"/>
       <c r="D28" s="83"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="82"/>
       <c r="G28" s="84"/>
       <c r="H28" s="82"/>
@@ -2080,7 +2099,7 @@
       <c r="B29" s="87"/>
       <c r="C29" s="87"/>
       <c r="D29" s="88"/>
-      <c r="E29" s="116"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="89"/>
       <c r="G29" s="90"/>
       <c r="H29" s="91"/>
@@ -2096,25 +2115,25 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="117">
+      <c r="E30" s="106">
         <f>SUM(E19:E29)</f>
-        <v>6849070</v>
-      </c>
-      <c r="F30" s="118">
+        <v>8640360</v>
+      </c>
+      <c r="F30" s="107">
         <f>SUM(F19:F29)</f>
-        <v>14503171</v>
+        <v>16453303</v>
       </c>
       <c r="G30" s="20">
         <f>SUM(G19:G29)</f>
-        <v>0.73995770408163264</v>
+        <v>0.83945423469387759</v>
       </c>
       <c r="H30" s="18">
         <f>A19-F30</f>
-        <v>5096829</v>
+        <v>3146697</v>
       </c>
       <c r="I30" s="23">
         <f>1-G30</f>
-        <v>0.26004229591836736</v>
+        <v>0.16054576530612241</v>
       </c>
       <c r="J30" s="60"/>
       <c r="K30" s="60"/>
@@ -2133,12 +2152,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2147,10 +2166,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="105"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
@@ -2165,18 +2184,18 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="103">
+      <c r="A36" s="116">
         <f>A19-F30</f>
-        <v>5096829</v>
-      </c>
-      <c r="B36" s="104"/>
+        <v>3146697</v>
+      </c>
+      <c r="B36" s="117"/>
       <c r="C36" s="64">
         <f>1-G30</f>
-        <v>0.26004229591836736</v>
+        <v>0.16054576530612241</v>
       </c>
       <c r="D36" s="19">
         <f>(C36/0.8)*100</f>
-        <v>32.50528698979592</v>
+        <v>20.068220663265301</v>
       </c>
       <c r="E36" s="73" t="s">
         <v>43</v>
@@ -2235,8 +2254,8 @@
       <c r="F40" s="46"/>
       <c r="G40" s="46"/>
       <c r="H40" s="46"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="115"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="47"/>
@@ -2330,9 +2349,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="110"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="112"/>
       <c r="E50" s="52"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2349,8 +2368,8 @@
       <c r="F51" s="46"/>
       <c r="G51" s="46"/>
       <c r="H51" s="46"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="102"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="115"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="47"/>
@@ -2361,8 +2380,8 @@
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="48"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="47"/>
@@ -2373,8 +2392,8 @@
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
       <c r="H53" s="50"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2387,23 +2406,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="101"/>
-      <c r="C59" s="102"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="115"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="101"/>
-      <c r="C66" s="102"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="115"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2411,6 +2425,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>№Поз</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вес, гр. (ном. 135 гр.) </t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -783,9 +786,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,29 +1018,41 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1351,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1372,34 +1384,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1410,365 +1422,365 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="35">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>28</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>28</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="37">
+      <c r="F5" s="65"/>
+      <c r="G5" s="36">
         <f>E5-F5</f>
         <v>28</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>28</v>
       </c>
       <c r="E6" s="9">
         <v>28</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>28</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="62"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>38</v>
       </c>
       <c r="E7" s="9">
         <v>38</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="41"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="62"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>38</v>
       </c>
       <c r="E8" s="9">
         <v>38</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="62"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>155</v>
       </c>
       <c r="E9" s="9">
         <v>155</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="66">
         <v>50</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G15" si="2">E9-F9</f>
         <v>105</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="42"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="62"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>25</v>
       </c>
       <c r="E10" s="9">
         <v>25</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="62"/>
+      <c r="L10" s="61"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>30</v>
       </c>
       <c r="E11" s="9">
         <v>30</v>
       </c>
-      <c r="F11" s="67"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="42"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="67"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="42"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>60</v>
       </c>
       <c r="E13" s="9">
         <v>60</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="66">
         <v>10</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="62"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>240</v>
       </c>
       <c r="E14" s="9">
         <v>240</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="66">
         <v>50</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="42"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="62"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="99">
+      <c r="A15" s="98">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="70">
         <v>50</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="38">
         <v>50</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="39">
+      <c r="F15" s="67"/>
+      <c r="G15" s="38">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="72"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1780,7 +1792,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="12"/>
@@ -1790,321 +1802,344 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
+      <c r="J18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="63">
+      <c r="A19" s="62">
         <f>E5*700000</f>
         <v>19600000</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="76">
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="75">
         <v>7050000</v>
       </c>
-      <c r="G19" s="77">
-        <f t="shared" ref="G19:G25" si="3">F19/A$19</f>
+      <c r="G19" s="76">
+        <f t="shared" ref="G19:G26" si="3">F19/A$19</f>
         <v>0.35969387755102039</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="75">
         <f>A19-F19</f>
         <v>12550000</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="68">
         <f>1-G19</f>
         <v>0.64030612244897966</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78">
         <v>43503</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="78">
         <v>43508</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="78">
         <v>43509</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="101">
         <v>892160</v>
       </c>
-      <c r="F20" s="80">
+      <c r="F20" s="79">
         <v>1151963</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="76">
         <f t="shared" si="3"/>
         <v>5.8773622448979594E-2</v>
       </c>
-      <c r="H20" s="76">
-        <f t="shared" ref="H20:I23" si="4">H19-F20</f>
+      <c r="H20" s="75">
+        <f t="shared" ref="H20:J23" si="4">H19-F20</f>
         <v>11398037</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="68">
         <f t="shared" si="4"/>
         <v>0.58153250000000012</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="118"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="13"/>
-      <c r="B21" s="81">
+      <c r="B21" s="80">
         <v>43531</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="80">
         <v>43537</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="80">
         <v>43553</v>
       </c>
-      <c r="E21" s="103">
+      <c r="E21" s="102">
         <v>1379410</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="81">
         <v>1586701</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="76">
         <f t="shared" si="3"/>
         <v>8.0954132653061228E-2</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="75">
         <f t="shared" si="4"/>
         <v>9811336</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="68">
         <f t="shared" si="4"/>
         <v>0.50057836734693884</v>
       </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="13"/>
-      <c r="B22" s="81">
+      <c r="B22" s="80">
         <v>43577</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="80">
         <v>43584</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="80">
         <v>43585</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="103">
         <v>1740710</v>
       </c>
-      <c r="F22" s="83">
+      <c r="F22" s="82">
         <v>1953970</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="76">
         <f t="shared" si="3"/>
         <v>9.9692346938775517E-2</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="75">
         <f t="shared" si="4"/>
         <v>7857366</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="68">
         <f t="shared" si="4"/>
         <v>0.40088602040816335</v>
       </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
-      <c r="B23" s="81">
+      <c r="B23" s="80">
         <v>43675</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="80">
         <v>43679</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="80">
         <v>43680</v>
       </c>
-      <c r="E23" s="103">
+      <c r="E23" s="102">
         <v>1324300</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="81">
         <v>1113321</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="83">
         <f t="shared" si="3"/>
         <v>5.6802091836734694E-2</v>
       </c>
-      <c r="H23" s="76">
+      <c r="H23" s="75">
         <f t="shared" si="4"/>
         <v>6744045</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="68">
         <f t="shared" si="4"/>
         <v>0.34408392857142867</v>
       </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="81">
+      <c r="B24" s="80">
         <v>43719</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="80">
         <v>43724</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="80">
         <v>43725</v>
       </c>
-      <c r="E24" s="103">
+      <c r="E24" s="102">
         <v>1512490</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="81">
         <v>1647216</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="83">
         <f t="shared" si="3"/>
         <v>8.4041632653061221E-2</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="75">
         <f t="shared" ref="H24" si="5">H23-F24</f>
         <v>5096829</v>
       </c>
-      <c r="I24" s="69">
-        <f t="shared" ref="I24" si="6">I23-G24</f>
+      <c r="I24" s="68">
+        <f t="shared" ref="I24:J24" si="6">I23-G24</f>
         <v>0.26004229591836747</v>
       </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="81">
+      <c r="B25" s="80">
         <v>43782</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="80">
         <v>43788</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="80">
         <v>43789</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="102">
         <v>1791290</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="81">
         <v>1950132</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="83">
         <f t="shared" si="3"/>
         <v>9.9496530612244893E-2</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="75">
         <f t="shared" ref="H25" si="7">H24-F25</f>
         <v>3146697</v>
       </c>
-      <c r="I25" s="69">
-        <f t="shared" ref="I25" si="8">I24-G25</f>
+      <c r="I25" s="68">
+        <f t="shared" ref="I25:J25" si="8">I24-G25</f>
         <v>0.16054576530612258</v>
       </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="B26" s="80">
+        <v>43852</v>
+      </c>
+      <c r="C26" s="80">
+        <v>43857</v>
+      </c>
+      <c r="D26" s="80">
+        <v>43858</v>
+      </c>
+      <c r="E26" s="102">
+        <v>1533400</v>
+      </c>
+      <c r="F26" s="81">
+        <v>1685448</v>
+      </c>
+      <c r="G26" s="83">
+        <f t="shared" si="3"/>
+        <v>8.5992244897959189E-2</v>
+      </c>
+      <c r="H26" s="75">
+        <f t="shared" ref="H26" si="9">H25-F26</f>
+        <v>1461249</v>
+      </c>
+      <c r="I26" s="68">
+        <f t="shared" ref="I26:J26" si="10">I25-G26</f>
+        <v>7.455352040816339E-2</v>
+      </c>
+      <c r="J26" s="118">
+        <v>143</v>
+      </c>
+      <c r="K26" s="57"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="57"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="57"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="1"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="120"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -2115,29 +2150,29 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="106">
+      <c r="E30" s="105">
         <f>SUM(E19:E29)</f>
-        <v>8640360</v>
-      </c>
-      <c r="F30" s="107">
+        <v>10173760</v>
+      </c>
+      <c r="F30" s="106">
         <f>SUM(F19:F29)</f>
-        <v>16453303</v>
+        <v>18138751</v>
       </c>
       <c r="G30" s="20">
         <f>SUM(G19:G29)</f>
-        <v>0.83945423469387759</v>
+        <v>0.92544647959183679</v>
       </c>
       <c r="H30" s="18">
         <f>A19-F30</f>
-        <v>3146697</v>
-      </c>
-      <c r="I30" s="23">
+        <v>1461249</v>
+      </c>
+      <c r="I30" s="22">
         <f>1-G30</f>
-        <v>0.16054576530612241</v>
-      </c>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
+        <v>7.455352040816321E-2</v>
+      </c>
+      <c r="J30" s="121"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
@@ -2152,12 +2187,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2166,10 +2201,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="118"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
@@ -2184,31 +2219,31 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="116">
+      <c r="A36" s="109">
         <f>A19-F30</f>
-        <v>3146697</v>
-      </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="64">
+        <v>1461249</v>
+      </c>
+      <c r="B36" s="110"/>
+      <c r="C36" s="63">
         <f>1-G30</f>
-        <v>0.16054576530612241</v>
+        <v>7.455352040816321E-2</v>
       </c>
       <c r="D36" s="19">
         <f>(C36/0.8)*100</f>
-        <v>20.068220663265301</v>
-      </c>
-      <c r="E36" s="73" t="s">
+        <v>9.3191900510204011</v>
+      </c>
+      <c r="E36" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F36" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="100" t="s">
+      <c r="G36" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2246,113 +2281,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="108"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="48"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="48"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="48"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="47"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="48"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="48"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="47"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="48"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="48"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="48"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="47"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="52"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2360,40 +2395,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="115"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="108"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="47"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="47"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2406,18 +2441,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="108"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="114"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2425,11 +2465,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
@@ -1018,41 +1018,41 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1384,29 +1384,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1536,10 +1536,12 @@
       <c r="E7" s="9">
         <v>38</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="66">
+        <v>1</v>
+      </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="40"/>
@@ -1564,10 +1566,12 @@
       <c r="E8" s="9">
         <v>38</v>
       </c>
-      <c r="F8" s="66"/>
+      <c r="F8" s="66">
+        <v>6</v>
+      </c>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="40"/>
@@ -1593,11 +1597,11 @@
         <v>155</v>
       </c>
       <c r="F9" s="66">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G15" si="2">E9-F9</f>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H9" s="44"/>
       <c r="I9" s="41"/>
@@ -1650,10 +1654,12 @@
       <c r="E11" s="9">
         <v>30</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="66">
+        <v>2</v>
+      </c>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="41"/>
@@ -1706,11 +1712,11 @@
         <v>60</v>
       </c>
       <c r="F13" s="66">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>29</v>
@@ -1738,11 +1744,11 @@
         <v>240</v>
       </c>
       <c r="F14" s="66">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="41"/>
@@ -1853,7 +1859,7 @@
         <v>7050000</v>
       </c>
       <c r="G19" s="76">
-        <f t="shared" ref="G19:G26" si="3">F19/A$19</f>
+        <f t="shared" ref="G19:G27" si="3">F19/A$19</f>
         <v>0.35969387755102039</v>
       </c>
       <c r="H19" s="75">
@@ -1864,7 +1870,7 @@
         <f>1-G19</f>
         <v>0.64030612244897966</v>
       </c>
-      <c r="J19" s="118"/>
+      <c r="J19" s="107"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
     </row>
@@ -1890,14 +1896,14 @@
         <v>5.8773622448979594E-2</v>
       </c>
       <c r="H20" s="75">
-        <f t="shared" ref="H20:J23" si="4">H19-F20</f>
+        <f t="shared" ref="H20:I23" si="4">H19-F20</f>
         <v>11398037</v>
       </c>
       <c r="I20" s="68">
         <f t="shared" si="4"/>
         <v>0.58153250000000012</v>
       </c>
-      <c r="J20" s="118"/>
+      <c r="J20" s="107"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -1930,7 +1936,7 @@
         <f t="shared" si="4"/>
         <v>0.50057836734693884</v>
       </c>
-      <c r="J21" s="118"/>
+      <c r="J21" s="107"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
     </row>
@@ -1963,7 +1969,7 @@
         <f t="shared" si="4"/>
         <v>0.40088602040816335</v>
       </c>
-      <c r="J22" s="118"/>
+      <c r="J22" s="107"/>
       <c r="K22" s="57"/>
       <c r="L22" s="1"/>
     </row>
@@ -1996,7 +2002,7 @@
         <f t="shared" si="4"/>
         <v>0.34408392857142867</v>
       </c>
-      <c r="J23" s="118"/>
+      <c r="J23" s="107"/>
       <c r="K23" s="58"/>
       <c r="L23" s="1"/>
     </row>
@@ -2026,10 +2032,10 @@
         <v>5096829</v>
       </c>
       <c r="I24" s="68">
-        <f t="shared" ref="I24:J24" si="6">I23-G24</f>
+        <f t="shared" ref="I24" si="6">I23-G24</f>
         <v>0.26004229591836747</v>
       </c>
-      <c r="J24" s="118"/>
+      <c r="J24" s="107"/>
       <c r="K24" s="57"/>
       <c r="L24" s="1"/>
     </row>
@@ -2059,10 +2065,10 @@
         <v>3146697</v>
       </c>
       <c r="I25" s="68">
-        <f t="shared" ref="I25:J25" si="8">I24-G25</f>
+        <f t="shared" ref="I25" si="8">I24-G25</f>
         <v>0.16054576530612258</v>
       </c>
-      <c r="J25" s="118"/>
+      <c r="J25" s="107"/>
       <c r="K25" s="57"/>
       <c r="L25" s="1"/>
     </row>
@@ -2092,10 +2098,10 @@
         <v>1461249</v>
       </c>
       <c r="I26" s="68">
-        <f t="shared" ref="I26:J26" si="10">I25-G26</f>
+        <f t="shared" ref="I26" si="10">I25-G26</f>
         <v>7.455352040816339E-2</v>
       </c>
-      <c r="J26" s="118">
+      <c r="J26" s="107">
         <v>143</v>
       </c>
       <c r="K26" s="57"/>
@@ -2103,15 +2109,36 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="119"/>
+      <c r="B27" s="80">
+        <v>43913</v>
+      </c>
+      <c r="C27" s="80">
+        <v>43920</v>
+      </c>
+      <c r="D27" s="80">
+        <v>43922</v>
+      </c>
+      <c r="E27" s="103">
+        <v>2124445</v>
+      </c>
+      <c r="F27" s="81">
+        <v>2254357</v>
+      </c>
+      <c r="G27" s="84">
+        <f t="shared" si="3"/>
+        <v>0.11501821428571428</v>
+      </c>
+      <c r="H27" s="75">
+        <f t="shared" ref="H27" si="11">H26-F27</f>
+        <v>-793108</v>
+      </c>
+      <c r="I27" s="68">
+        <f t="shared" ref="I27" si="12">I26-G27</f>
+        <v>-4.0464693877550889E-2</v>
+      </c>
+      <c r="J27" s="108">
+        <v>146</v>
+      </c>
       <c r="K27" s="57"/>
       <c r="L27" s="1"/>
     </row>
@@ -2125,7 +2152,7 @@
       <c r="G28" s="83"/>
       <c r="H28" s="81"/>
       <c r="I28" s="85"/>
-      <c r="J28" s="119"/>
+      <c r="J28" s="108"/>
       <c r="K28" s="57"/>
       <c r="L28" s="1"/>
     </row>
@@ -2139,7 +2166,7 @@
       <c r="G29" s="89"/>
       <c r="H29" s="90"/>
       <c r="I29" s="91"/>
-      <c r="J29" s="120"/>
+      <c r="J29" s="109"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -2152,25 +2179,25 @@
       <c r="D30" s="17"/>
       <c r="E30" s="105">
         <f>SUM(E19:E29)</f>
-        <v>10173760</v>
+        <v>12298205</v>
       </c>
       <c r="F30" s="106">
         <f>SUM(F19:F29)</f>
-        <v>18138751</v>
+        <v>20393108</v>
       </c>
       <c r="G30" s="20">
         <f>SUM(G19:G29)</f>
-        <v>0.92544647959183679</v>
+        <v>1.040464693877551</v>
       </c>
       <c r="H30" s="18">
         <f>A19-F30</f>
-        <v>1461249</v>
+        <v>-793108</v>
       </c>
       <c r="I30" s="22">
         <f>1-G30</f>
-        <v>7.455352040816321E-2</v>
-      </c>
-      <c r="J30" s="121"/>
+        <v>-4.0464693877551028E-2</v>
+      </c>
+      <c r="J30" s="110"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
     </row>
@@ -2187,12 +2214,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2201,10 +2228,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="111"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
@@ -2219,18 +2246,18 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="109">
+      <c r="A36" s="119">
         <f>A19-F30</f>
-        <v>1461249</v>
-      </c>
-      <c r="B36" s="110"/>
+        <v>-793108</v>
+      </c>
+      <c r="B36" s="120"/>
       <c r="C36" s="63">
         <f>1-G30</f>
-        <v>7.455352040816321E-2</v>
+        <v>-4.0464693877551028E-2</v>
       </c>
       <c r="D36" s="19">
         <f>(C36/0.8)*100</f>
-        <v>9.3191900510204011</v>
+        <v>-5.0580867346938785</v>
       </c>
       <c r="E36" s="72" t="s">
         <v>43</v>
@@ -2289,8 +2316,8 @@
       <c r="F40" s="45"/>
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="108"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="118"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="46"/>
@@ -2384,9 +2411,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="115"/>
       <c r="E50" s="51"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2403,8 +2430,8 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="108"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="118"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="46"/>
@@ -2415,8 +2442,8 @@
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="47"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="46"/>
@@ -2427,8 +2454,8 @@
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
       <c r="H53" s="49"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2441,23 +2468,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="107"/>
-      <c r="C59" s="108"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="107"/>
-      <c r="C66" s="108"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="118"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2465,6 +2487,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка III-3-53-160-2 ABC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A45A7-3681-4A1B-BCD4-66B87B3885A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="13296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -175,7 +183,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1030,29 +1038,29 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1150,6 +1158,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1185,6 +1210,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1360,53 +1402,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="116" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1414,7 +1456,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1426,7 +1468,7 @@
       <c r="K3" s="24"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>1</v>
       </c>
@@ -1491,7 +1533,7 @@
       <c r="K5" s="35"/>
       <c r="L5" s="60"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
@@ -1519,7 +1561,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
@@ -1549,7 +1591,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="61"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1579,7 +1621,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="61"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1609,7 +1651,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="61"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1637,7 +1679,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="61"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1668,7 +1710,7 @@
       <c r="L11" s="61"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1694,7 +1736,7 @@
       <c r="L12" s="61"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1726,7 +1768,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="61"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1756,7 +1798,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="61"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="98">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1784,7 +1826,7 @@
       <c r="K15" s="38"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
       <c r="B16" s="52"/>
       <c r="C16" s="1"/>
@@ -1796,7 +1838,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="54" t="s">
         <v>10</v>
@@ -1812,7 +1854,7 @@
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
     </row>
-    <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="18" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>23</v>
       </c>
@@ -1846,7 +1888,7 @@
       <c r="K18" s="56"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="62">
         <f>E5*700000</f>
         <v>19600000</v>
@@ -1874,7 +1916,7 @@
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
     </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="77"/>
       <c r="B20" s="78">
         <v>43503</v>
@@ -1907,7 +1949,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="80">
         <v>43531</v>
@@ -1940,7 +1982,7 @@
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="80">
         <v>43577</v>
@@ -1973,7 +2015,7 @@
       <c r="K22" s="57"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="80">
         <v>43675</v>
@@ -2006,7 +2048,7 @@
       <c r="K23" s="58"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="80">
         <v>43719</v>
@@ -2039,7 +2081,7 @@
       <c r="K24" s="57"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="80">
         <v>43782</v>
@@ -2072,7 +2114,7 @@
       <c r="K25" s="57"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="80">
         <v>43852</v>
@@ -2107,7 +2149,7 @@
       <c r="K26" s="57"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="80">
         <v>43913</v>
@@ -2142,7 +2184,7 @@
       <c r="K27" s="57"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -2156,7 +2198,7 @@
       <c r="K28" s="57"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" thickBot="1">
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
@@ -2170,7 +2212,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>28</v>
       </c>
@@ -2201,7 +2243,7 @@
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2213,13 +2255,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="112" t="s">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2227,11 +2269,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="121" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="121"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
@@ -2245,12 +2287,12 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="119">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="113">
         <f>A19-F30</f>
         <v>-793108</v>
       </c>
-      <c r="B36" s="120"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="63">
         <f>1-G30</f>
         <v>-4.0464693877551028E-2</v>
@@ -2272,7 +2314,7 @@
       <c r="I36" s="72"/>
       <c r="J36" s="72"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2280,7 +2322,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2295,7 +2337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2307,7 +2349,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -2316,10 +2358,10 @@
       <c r="F40" s="45"/>
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="118"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="I40" s="111"/>
+      <c r="J40" s="112"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -2329,7 +2371,7 @@
       <c r="G41" s="48"/>
       <c r="H41" s="47"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -2339,7 +2381,7 @@
       <c r="G42" s="48"/>
       <c r="H42" s="47"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
@@ -2349,7 +2391,7 @@
       <c r="G43" s="48"/>
       <c r="H43" s="47"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -2359,7 +2401,7 @@
       <c r="G44" s="48"/>
       <c r="H44" s="47"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -2369,7 +2411,7 @@
       <c r="G45" s="48"/>
       <c r="H45" s="47"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
       <c r="B46" s="47"/>
       <c r="C46" s="49"/>
@@ -2379,7 +2421,7 @@
       <c r="G46" s="49"/>
       <c r="H46" s="49"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -2389,7 +2431,7 @@
       <c r="G47" s="48"/>
       <c r="H47" s="47"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
@@ -2399,7 +2441,7 @@
       <c r="G48" s="48"/>
       <c r="H48" s="47"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -2409,11 +2451,11 @@
       <c r="G49" s="48"/>
       <c r="H49" s="47"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="120"/>
       <c r="E50" s="51"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2421,7 +2463,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
@@ -2430,10 +2472,10 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2442,10 +2484,10 @@
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="47"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2454,10 +2496,10 @@
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
       <c r="H53" s="49"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2467,19 +2509,24 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="117"/>
-      <c r="C59" s="118"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="117"/>
-      <c r="C66" s="118"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="111"/>
+      <c r="C59" s="112"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="111"/>
+      <c r="C66" s="112"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2487,11 +2534,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2505,12 +2547,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2519,24 +2561,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
